--- a/biology/Zoologie/Embolotherium/Embolotherium.xlsx
+++ b/biology/Zoologie/Embolotherium/Embolotherium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Embolotherium est un genre éteint de périssodactyles rattaché à la famille des Brontotheriidae qui a vécu en Mongolie intérieure et extérieure au cours de l'Éocène.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'était un mammifère végétarien, d'une grande taille, en moyenne 2,5 mètres de haut, et pouvant peser jusqu'à 5 tonnes[1]. Il ressemblait aux rhinocéros actuels, mais l'excroissance sur son museau n'était pas une corne mais une structure osseuse recouverte de peau et donc plus fragile qu'une corne de rhinocéros. dans un épisode de Nick Cutter et les portes du temps ,il y a un troupeau d'embolothérium qui s'était échappé d'une brèche temporaire (anomalie ,porte du temps).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'était un mammifère végétarien, d'une grande taille, en moyenne 2,5 mètres de haut, et pouvant peser jusqu'à 5 tonnes. Il ressemblait aux rhinocéros actuels, mais l'excroissance sur son museau n'était pas une corne mais une structure osseuse recouverte de peau et donc plus fragile qu'une corne de rhinocéros. dans un épisode de Nick Cutter et les portes du temps ,il y a un troupeau d'embolothérium qui s'était échappé d'une brèche temporaire (anomalie ,porte du temps).
 </t>
         </is>
       </c>
